--- a/Banc_de_Test_Datasheet/Banc de test.xlsx
+++ b/Banc_de_Test_Datasheet/Banc de test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc14fa5c2b590c51/Documents/4EME ANNEE/CAPTEUR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2089cc13228d1e/Bureau/4A/Capteur/Banc_de_Test_Datasheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="8_{C44F7A0E-323D-4C24-8730-41462035D93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF0B05A2-27F4-482F-A913-8D5F88DFF938}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD3F70E2-8A07-42D8-BA5E-83C70AEB2015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7A3A3893-8321-450A-94F9-CBC34500D0B6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Résistance (Mohms)</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Capteur B</t>
-  </si>
-  <si>
-    <t>Range</t>
   </si>
   <si>
     <t>Déformation</t>
@@ -71,6 +68,12 @@
   </si>
   <si>
     <t>Capteur H</t>
+  </si>
+  <si>
+    <t>Capteur Flex</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -131,16 +134,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,42 +419,78 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.713764138265997E-2"/>
+                  <c:y val="-2.6689021665726568E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$F$4:$F$17</c:f>
+              <c:f>Feuil1!$F$4:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4999999999999997E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>-5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.0000000000000001E-3</c:v>
+                  <c:v>-6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.0000000000000001E-3</c:v>
+                  <c:v>-7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.4999999999999997E-3</c:v>
+                  <c:v>-0.01</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>-1.4999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -341,39 +498,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$G$4:$G$17</c:f>
+              <c:f>Feuil1!$G$4:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6.239460370994946E-2</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9476439790575966E-2</c:v>
+                  <c:v>9.5652173913043481E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14545454545454545</c:v>
+                  <c:v>0.13513513513513514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.17318435754189937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.22807017543859656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36956521739130432</c:v>
+                  <c:v>-4.7619047619047616E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.7619047619047616E-2</c:v>
+                  <c:v>-7.9365079365079361E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.9365079365079361E-2</c:v>
+                  <c:v>-9.5238095238095233E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.6825396825396731E-2</c:v>
+                  <c:v>-0.1301587301587302</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.22222222222222221</c:v>
+                  <c:v>-0.15873015873015872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,6 +765,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1734549340638445E-2"/>
+              <c:y val="0.4340608807946903"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -881,7 +1046,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$F$22:$F$29</c:f>
+              <c:f>Feuil1!$F$20:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -914,7 +1079,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$G$22:$G$29</c:f>
+              <c:f>Feuil1!$G$20:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -931,7 +1096,7 @@
                   <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18471337579617833</c:v>
+                  <c:v>0.22368421052631579</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-6.4000000000000001E-2</c:v>
@@ -1473,7 +1638,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$F$42:$F$49</c:f>
+              <c:f>Feuil1!$F$37:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1506,7 +1671,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$G$42:$G$49</c:f>
+              <c:f>Feuil1!$G$37:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1881,6 +2046,732 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Flex sensor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Compression</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.9068334830896989E-2"/>
+                  <c:y val="-0.10557672032703824"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" baseline="0"/>
+                      <a:t>y = 9,6379x + b</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$F$55:$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$55:$G$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.7015690698389903E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10849740932642488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12897097625329815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-898C-48E5-8970-5351098AE5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tension</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24328913941968411"/>
+                  <c:y val="0.20337391977539401"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" baseline="0"/>
+                      <a:t>y = 34,116x - b'</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$F$58:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$58:$G$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.46476190476190476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.56769230769230772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.64317460317460318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.7002666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-898C-48E5-8970-5351098AE5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="552421648"/>
+        <c:axId val="552428048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="552421648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Déformation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="chr-Cher-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Ꮛ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>max</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552428048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="552428048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>R/R0</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552421648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2001,6 +2892,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3549,20 +4480,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601915</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>16009</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7469</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>172892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>279077</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>184631</xdr:rowOff>
+      <xdr:colOff>84840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14942</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3590,14 +5037,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>747058</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>137459</xdr:rowOff>
+      <xdr:colOff>597647</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>29882</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>97118</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3625,16 +5072,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>694765</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>29882</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>567765</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3654,6 +5101,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>634998</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>739587</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>97117</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222BF43B-E799-485C-91EE-45282E8E08C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3959,15 +5442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07C51B2-713D-49E1-B2CE-E83EBF3CA130}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" customWidth="1"/>
@@ -3978,28 +5461,25 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="J3">
         <f>AVERAGE(K:K)</f>
@@ -4007,733 +5487,992 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14">
+        <v>59.3</v>
+      </c>
+      <c r="E4" s="14">
+        <v>63</v>
+      </c>
+      <c r="F4" s="14">
+        <f>B4/(2*C4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="15">
+        <f>(E4-D4)/D4</f>
+        <v>6.239460370994946E-2</v>
+      </c>
+      <c r="K4">
+        <v>79.58</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10">
         <v>0.03</v>
       </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>57.3</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>57.5</v>
+      </c>
+      <c r="E5" s="6">
         <v>63</v>
       </c>
-      <c r="F5">
-        <f>B5/(2*C5)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G5">
-        <f>(E5-D5)/D5</f>
-        <v>9.9476439790575966E-2</v>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F13" si="0">B5/(2*C5)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G8" si="1">(E5-D5)/D5</f>
+        <v>9.5652173913043481E-2</v>
       </c>
       <c r="K5">
-        <v>79.58</v>
+        <v>78.28</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="3">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10">
         <v>0.03</v>
       </c>
-      <c r="C6" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D6">
-        <v>55</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>55.5</v>
+      </c>
+      <c r="E6" s="6">
         <v>63</v>
       </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F14" si="0">B6/(2*C6)</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G9" si="1">(E6-D6)/D6</f>
-        <v>0.14545454545454545</v>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.13513513513513514</v>
       </c>
       <c r="K6">
-        <v>78.28</v>
+        <v>78.709999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10">
         <v>0.03</v>
       </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>54</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>53.7</v>
+      </c>
+      <c r="E7" s="6">
         <v>63</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="G7">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.17318435754189937</v>
       </c>
       <c r="K7">
-        <v>78.709999999999994</v>
+        <v>80.02</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17">
         <v>0.03</v>
       </c>
-      <c r="C8" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D8">
-        <v>49</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>51.3</v>
+      </c>
+      <c r="E8" s="8">
         <v>63</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="G8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
+        <v>0.22807017543859656</v>
       </c>
       <c r="K8">
         <v>80.02</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>46</v>
-      </c>
-      <c r="E9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>66</v>
+      </c>
+      <c r="E9" s="6">
         <v>63</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0.36956521739130432</v>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="7">
+        <f>(E9-D9)/E9</f>
+        <v>-4.7619047619047616E-2</v>
       </c>
       <c r="K9">
-        <v>80.02</v>
+        <v>79.58</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11">
         <v>-0.03</v>
       </c>
-      <c r="C10" s="4">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>66</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>68</v>
+      </c>
+      <c r="E10" s="6">
         <v>63</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="G10">
-        <f>(E10-D10)/E10</f>
-        <v>-4.7619047619047616E-2</v>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" ref="G10:G13" si="2">(E10-D10)/E10</f>
+        <v>-7.9365079365079361E-2</v>
       </c>
       <c r="K10">
-        <v>79.58</v>
+        <v>77.86</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="4">
+      <c r="A11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11">
         <v>-0.03</v>
       </c>
-      <c r="C11" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D11">
-        <v>68</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>69</v>
+      </c>
+      <c r="E11" s="6">
         <v>63</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ref="G11:G14" si="2">(E11-D11)/E11</f>
-        <v>-7.9365079365079361E-2</v>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>-9.5238095238095233E-2</v>
       </c>
       <c r="K11">
-        <v>77.86</v>
+        <v>79.14</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11">
         <v>-0.03</v>
       </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>71.2</v>
+      </c>
+      <c r="E12" s="6">
         <v>63</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="G12">
+        <v>-0.01</v>
+      </c>
+      <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>-9.6825396825396731E-2</v>
+        <v>-0.1301587301587302</v>
       </c>
       <c r="K12">
-        <v>79.14</v>
+        <v>79.58</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="4">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12">
         <v>-0.03</v>
       </c>
-      <c r="C13" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D13">
-        <v>72</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>73</v>
+      </c>
+      <c r="E13" s="8">
         <v>63</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>-0.01</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>-0.14285714285714285</v>
-      </c>
-      <c r="K13">
-        <v>79.58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>77</v>
-      </c>
-      <c r="E14">
-        <v>63</v>
-      </c>
-      <c r="F14">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G14">
+      <c r="G13" s="9">
         <f t="shared" si="2"/>
-        <v>-0.22222222222222221</v>
+        <v>-0.15873015873015872</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>3</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>5</v>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="C20" s="16">
+        <v>3</v>
+      </c>
+      <c r="D20" s="14">
+        <v>185</v>
+      </c>
+      <c r="E20" s="14">
+        <v>194</v>
+      </c>
+      <c r="F20" s="14">
+        <f>B20/(2*C20)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G20" s="15">
+        <f>(E20-D20)/D20</f>
+        <v>4.8648648648648651E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>186</v>
+      </c>
+      <c r="E21" s="6">
+        <v>200</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" ref="F21:F27" si="3">B21/(2*C21)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" ref="G21:G27" si="4">(E21-D21)/D21</f>
+        <v>7.5268817204301078E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
+      <c r="A22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="10">
         <v>0.03</v>
       </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>185</v>
-      </c>
-      <c r="E22">
-        <v>194</v>
-      </c>
-      <c r="F22">
-        <f>B22/(2*C22)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G22">
-        <f>(E22-D22)/D22</f>
-        <v>4.8648648648648651E-2</v>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>173</v>
+      </c>
+      <c r="E22" s="6">
+        <v>191</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="4"/>
+        <v>0.10404624277456648</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10">
         <v>0.03</v>
       </c>
-      <c r="C23" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D23">
-        <v>186</v>
-      </c>
-      <c r="E23">
-        <v>200</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ref="F23:F29" si="3">B23/(2*C23)</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ref="G23:G29" si="4">(E23-D23)/D23</f>
-        <v>7.5268817204301078E-2</v>
+      <c r="C23" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="6">
+        <v>160</v>
+      </c>
+      <c r="E23" s="6">
+        <v>185</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10">
         <v>0.03</v>
       </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>173</v>
-      </c>
-      <c r="E24">
-        <v>191</v>
-      </c>
-      <c r="F24">
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>152</v>
+      </c>
+      <c r="E24" s="6">
+        <v>186</v>
+      </c>
+      <c r="F24" s="6">
         <f t="shared" si="3"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="G24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G24" s="7">
         <f t="shared" si="4"/>
-        <v>0.10404624277456648</v>
+        <v>0.22368421052631579</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D25">
-        <v>160</v>
-      </c>
-      <c r="E25">
-        <v>185</v>
-      </c>
-      <c r="F25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13">
+        <v>-0.03</v>
+      </c>
+      <c r="C25" s="13">
+        <v>3</v>
+      </c>
+      <c r="D25" s="14">
+        <v>125</v>
+      </c>
+      <c r="E25" s="14">
+        <v>117</v>
+      </c>
+      <c r="F25" s="14">
         <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="G25">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G25" s="15">
         <f t="shared" si="4"/>
-        <v>0.15625</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>157</v>
-      </c>
-      <c r="E26">
-        <v>186</v>
-      </c>
-      <c r="F26">
+      <c r="A26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D26" s="6">
+        <v>125</v>
+      </c>
+      <c r="E26" s="6">
+        <v>115</v>
+      </c>
+      <c r="F26" s="6">
         <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G26">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="G26" s="7">
         <f t="shared" si="4"/>
-        <v>0.18471337579617833</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="4">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12">
         <v>-0.03</v>
       </c>
-      <c r="C27" s="4">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>125</v>
-      </c>
-      <c r="E27">
-        <v>117</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="3"/>
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
-        <v>-6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D28">
-        <v>125</v>
-      </c>
-      <c r="E28">
+      <c r="C27" s="12">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>130</v>
+      </c>
+      <c r="E27" s="8">
         <v>115</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="C29" s="4">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>130</v>
-      </c>
-      <c r="E29">
-        <v>115</v>
-      </c>
-      <c r="F29">
+      <c r="F27" s="8">
         <f t="shared" si="3"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="G29">
+      <c r="G27" s="9">
         <f t="shared" si="4"/>
         <v>-0.11538461538461539</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.5</v>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="C31" s="4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="16"/>
+      <c r="B37" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="C37" s="10">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6">
+        <v>303</v>
+      </c>
+      <c r="E37" s="6">
+        <v>324</v>
+      </c>
+      <c r="F37" s="6">
+        <f>B37/(2*C37)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G37" s="7">
+        <f>(E37-D37)/D37</f>
+        <v>6.9306930693069313E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3</v>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="C38" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="D38" s="6">
+        <v>285</v>
+      </c>
+      <c r="E38" s="6">
+        <v>315</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" ref="F38:F44" si="5">B38/(2*C38)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" ref="G38:G44" si="6">(E38-D38)/D38</f>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="C39" s="10">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>253</v>
+      </c>
+      <c r="E39" s="6">
+        <v>293</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="5"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="6"/>
+        <v>0.15810276679841898</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>5</v>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D40" s="6">
+        <v>240</v>
+      </c>
+      <c r="E40" s="6">
+        <v>290</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="6"/>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>251</v>
+      </c>
+      <c r="E41" s="6">
+        <v>315</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="6"/>
+        <v>0.2549800796812749</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13">
+        <v>-0.03</v>
+      </c>
+      <c r="C42" s="13">
         <v>3</v>
       </c>
-      <c r="D42">
-        <v>303</v>
-      </c>
-      <c r="E42">
-        <v>324</v>
-      </c>
-      <c r="F42">
-        <f>B42/(2*C42)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G42">
-        <f>(E42-D42)/D42</f>
-        <v>6.9306930693069313E-2</v>
+      <c r="D42" s="14">
+        <v>295</v>
+      </c>
+      <c r="E42" s="14">
+        <v>280</v>
+      </c>
+      <c r="F42" s="14">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G42" s="15">
+        <f t="shared" si="6"/>
+        <v>-5.0847457627118647E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="A43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="C43" s="11">
         <v>2.5</v>
       </c>
-      <c r="D43">
-        <v>285</v>
-      </c>
-      <c r="E43">
-        <v>315</v>
-      </c>
-      <c r="F43">
-        <f t="shared" ref="F43:F49" si="5">B43/(2*C43)</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G43">
-        <f t="shared" ref="G43:G50" si="6">(E43-D43)/D43</f>
-        <v>0.10526315789473684</v>
+      <c r="D43" s="6">
+        <v>205</v>
+      </c>
+      <c r="E43" s="6">
+        <v>190</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="5"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="6"/>
+        <v>-7.3170731707317069E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="C44" s="12">
         <v>2</v>
       </c>
-      <c r="D44">
-        <v>253</v>
-      </c>
-      <c r="E44">
-        <v>293</v>
-      </c>
-      <c r="F44">
+      <c r="D44" s="8">
+        <v>245</v>
+      </c>
+      <c r="E44" s="8">
+        <v>220</v>
+      </c>
+      <c r="F44" s="8">
         <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="G44">
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="G44" s="9">
         <f t="shared" si="6"/>
-        <v>0.15810276679841898</v>
+        <v>-0.10204081632653061</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D45">
-        <v>240</v>
-      </c>
-      <c r="E45">
-        <v>290</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="6"/>
-        <v>0.20833333333333334</v>
-      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D46">
-        <v>251</v>
-      </c>
-      <c r="E46">
-        <v>315</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="5"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="6"/>
-        <v>0.2549800796812749</v>
+      <c r="F54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B47" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="C47" s="4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="16"/>
+      <c r="B55" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="C55" s="16">
         <v>3</v>
       </c>
-      <c r="D47">
-        <v>295</v>
-      </c>
-      <c r="E47">
-        <v>280</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="5"/>
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="6"/>
-        <v>-5.0847457627118647E-2</v>
+      <c r="D55" s="6">
+        <v>19502</v>
+      </c>
+      <c r="E55" s="6">
+        <v>21394</v>
+      </c>
+      <c r="F55" s="6">
+        <f>B55/(2*C55)</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="G55" s="7">
+        <f>(E55-D55)/D55</f>
+        <v>9.7015690698389903E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B48" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="C48" s="4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="C56" s="10">
         <v>2.5</v>
       </c>
-      <c r="D48">
-        <v>205</v>
-      </c>
-      <c r="E48">
-        <v>190</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="5"/>
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="6"/>
-        <v>-7.3170731707317069E-2</v>
+      <c r="D56" s="6">
+        <v>19300</v>
+      </c>
+      <c r="E56" s="6">
+        <v>21394</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" ref="F56:F62" si="7">B56/(2*C56)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" ref="G56:G62" si="8">(E56-D56)/D56</f>
+        <v>0.10849740932642488</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="C49" s="4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="10"/>
+      <c r="B57" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="C57" s="10">
         <v>2</v>
       </c>
-      <c r="D49">
-        <v>245</v>
-      </c>
-      <c r="E49">
-        <v>220</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="5"/>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="6"/>
-        <v>-0.10204081632653061</v>
+      <c r="D57" s="6">
+        <v>18950</v>
+      </c>
+      <c r="E57" s="6">
+        <v>21394</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" si="8"/>
+        <v>0.12897097625329815</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B50" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="C50" s="4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="13"/>
+      <c r="B58" s="21">
+        <v>-0.04</v>
+      </c>
+      <c r="C58" s="13">
+        <v>3</v>
+      </c>
+      <c r="D58" s="14">
+        <v>40000</v>
+      </c>
+      <c r="E58" s="14">
+        <v>22480</v>
+      </c>
+      <c r="F58" s="14">
+        <f t="shared" si="7"/>
+        <v>-6.6666666666666671E-3</v>
+      </c>
+      <c r="G58" s="15">
+        <f t="shared" si="8"/>
+        <v>-0.438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="11"/>
+      <c r="B59" s="18">
+        <v>-0.04</v>
+      </c>
+      <c r="C59" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D59" s="6">
+        <v>42000</v>
+      </c>
+      <c r="E59" s="6">
+        <v>22480</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="7"/>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="G59" s="7">
+        <f t="shared" si="8"/>
+        <v>-0.46476190476190476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="18">
+        <v>-0.04</v>
+      </c>
+      <c r="C60" s="11">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6">
+        <v>52000</v>
+      </c>
+      <c r="E60" s="6">
+        <v>22480</v>
+      </c>
+      <c r="F60" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.01</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" si="8"/>
+        <v>-0.56769230769230772</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="11"/>
+      <c r="B61" s="18">
+        <v>-0.04</v>
+      </c>
+      <c r="C61" s="11">
         <v>1.5</v>
       </c>
+      <c r="D61" s="6">
+        <v>63000</v>
+      </c>
+      <c r="E61" s="6">
+        <v>22480</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="7"/>
+        <v>-1.3333333333333334E-2</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" si="8"/>
+        <v>-0.64317460317460318</v>
+      </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B51" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="C51" s="4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="11"/>
+      <c r="B62" s="18">
+        <v>-0.04</v>
+      </c>
+      <c r="C62" s="11">
         <v>1</v>
       </c>
+      <c r="D62" s="6">
+        <v>75000</v>
+      </c>
+      <c r="E62" s="6">
+        <v>22480</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.02</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" si="8"/>
+        <v>-0.7002666666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12">
+        <v>-0.04</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="8">
+        <v>22480</v>
+      </c>
+      <c r="E63" s="8">
+        <v>22480</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Banc_de_Test_Datasheet/Banc de test.xlsx
+++ b/Banc_de_Test_Datasheet/Banc de test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2089cc13228d1e/Bureau/4A/Capteur/Banc_de_Test_Datasheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc14fa5c2b590c51/Documents/4EME ANNEE/CAPTEUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD3F70E2-8A07-42D8-BA5E-83C70AEB2015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="592" documentId="8_{C44F7A0E-323D-4C24-8730-41462035D93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0395AE01-449D-449D-B76F-1664F0FFCF1E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7A3A3893-8321-450A-94F9-CBC34500D0B6}"/>
   </bookViews>
